--- a/category/cabin_baggage/results/context_precision/summary/context_precision_metric_summary.xlsx
+++ b/category/cabin_baggage/results/context_precision/summary/context_precision_metric_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,33 +792,375 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>71.4%</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L, M, R, Q28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C, O, P, S, Q29, Q31</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>199.41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>71.4%</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8621</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L, M, R, Q27</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B, C, O, P, S, Q31</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>205.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>77.1%</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8996</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>M, R</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C, O, P, S, Q28, Q31</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>198.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>74.3%</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8768</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L, M, R</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>C, O, P, S, Q28, Q31</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>179.62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>74.3%</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8988</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B, R</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A, C, O, P, S, Q28, Q31</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>176.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>23</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>65.7%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8519</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>D, M, R, Q27</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A, C, O, P, S, Q28, Q29, Q31</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>167.67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>68.6%</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8551</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N, R, Q27</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A, C, L, P, S, Q28, Q29, Q31</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>200.44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8243</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>D, F, L, M, N, R</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A, C, O, P, S, Q28, Q29, Q31</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>182.98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8733</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>D, L, R, Q27</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A, C, O, P, S, Q28, Q29, Q31, Q33, Q35</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>148.43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8 runs</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>54</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>69.3%</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8568</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1622.28</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17 runs</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>119</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>69.2%</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>861.01</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1231,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -898,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -918,7 +1260,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -927,11 +1269,11 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.1%</t>
         </is>
       </c>
     </row>
@@ -947,16 +1289,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -976,20 +1318,20 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>33.3%</t>
         </is>
       </c>
     </row>
@@ -1005,10 +1347,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1034,20 +1376,20 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.1%</t>
         </is>
       </c>
     </row>
@@ -1063,16 +1405,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1092,10 +1434,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1121,10 +1463,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1150,10 +1492,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1179,10 +1521,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1208,7 +1550,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -1217,11 +1559,11 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>55.6%</t>
         </is>
       </c>
     </row>
@@ -1237,10 +1579,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -1250,7 +1592,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
     </row>
@@ -1266,20 +1608,20 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.2%</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1304,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1324,7 +1666,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1333,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1353,10 +1695,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1382,13 +1724,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1411,7 +1753,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1420,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1440,10 +1782,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1469,10 +1811,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1498,10 +1840,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1527,10 +1869,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1556,10 +1898,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1585,20 +1927,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -1614,10 +1956,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1643,20 +1985,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
     </row>
@@ -1672,20 +2014,20 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>11.1%</t>
         </is>
       </c>
     </row>
@@ -1701,7 +2043,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -1710,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1730,20 +2072,20 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -1759,7 +2101,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1768,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1788,16 +2130,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1817,7 +2159,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
@@ -1826,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1846,10 +2188,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1875,20 +2217,20 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>9</v>
+      </c>
+      <c r="D36" t="n">
         <v>8</v>
       </c>
-      <c r="D36" t="n">
-        <v>7</v>
-      </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
